--- a/outputs/SORs/SOR Testing_Corp China Pacific.xlsx
+++ b/outputs/SORs/SOR Testing_Corp China Pacific.xlsx
@@ -27,7 +27,7 @@
     <t xml:space="preserve">cvd</t>
   </si>
   <si>
-    <t xml:space="preserve">ytd_value</t>
+    <t xml:space="preserve">ytd</t>
   </si>
   <si>
     <t xml:space="preserve">data_source</t>
@@ -832,7 +832,9 @@
       <c r="D2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -875,7 +877,9 @@
       <c r="D3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>

--- a/outputs/SORs/SOR Testing_Corp China Pacific.xlsx
+++ b/outputs/SORs/SOR Testing_Corp China Pacific.xlsx
@@ -833,7 +833,7 @@
         <v>31</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -878,7 +878,7 @@
         <v>31</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>

--- a/outputs/SORs/SOR Testing_Corp China Pacific.xlsx
+++ b/outputs/SORs/SOR Testing_Corp China Pacific.xlsx
@@ -832,9 +832,7 @@
       <c r="D2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="2" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -877,9 +875,7 @@
       <c r="D3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="2" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
